--- a/output/0/tRNA-Lys-CTT-5-1.xlsx
+++ b/output/0/tRNA-Lys-CTT-5-1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="41">
   <si>
     <t>chr16</t>
   </si>
@@ -135,75 +135,6 @@
   </si>
   <si>
     <t>80</t>
-  </si>
-  <si>
-    <t>3230964</t>
-  </si>
-  <si>
-    <t>3230987</t>
-  </si>
-  <si>
-    <t>3230967</t>
-  </si>
-  <si>
-    <t>80,80,80</t>
-  </si>
-  <si>
-    <t>AAAAAAAAAAAGGGTTGCCA</t>
-  </si>
-  <si>
-    <t>63% (54)</t>
-  </si>
-  <si>
-    <t>20% (30)</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 0, Doench 2016: 63%, Moreno-Mateos: 20%</t>
-  </si>
-  <si>
-    <t>3230973</t>
-  </si>
-  <si>
-    <t>3230996</t>
-  </si>
-  <si>
-    <t>3230976</t>
-  </si>
-  <si>
-    <t>AAAAAAAAAAAAAAAAAAAA</t>
-  </si>
-  <si>
-    <t>40% (47)</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>3230974</t>
-  </si>
-  <si>
-    <t>3230997</t>
-  </si>
-  <si>
-    <t>3230977</t>
-  </si>
-  <si>
-    <t>2% (19)</t>
-  </si>
-  <si>
-    <t>0% (1)</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>66</t>
   </si>
 </sst>
 </file>
@@ -248,7 +179,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -490,183 +421,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" t="s">
-        <v>45</v>
-      </c>
-      <c r="L5" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" t="s">
-        <v>3</v>
-      </c>
-      <c r="N5" t="s">
-        <v>46</v>
-      </c>
-      <c r="O5" t="s">
-        <v>47</v>
-      </c>
-      <c r="P5" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>30</v>
-      </c>
-      <c r="R5" t="s">
-        <v>49</v>
-      </c>
-      <c r="S5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" t="s">
-        <v>53</v>
-      </c>
-      <c r="L6" t="s">
-        <v>9</v>
-      </c>
-      <c r="M6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" t="s">
-        <v>54</v>
-      </c>
-      <c r="O6" t="s">
-        <v>38</v>
-      </c>
-      <c r="P6" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>56</v>
-      </c>
-      <c r="R6" t="s">
-        <v>15</v>
-      </c>
-      <c r="S6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" t="s">
-        <v>60</v>
-      </c>
-      <c r="O7" t="s">
-        <v>61</v>
-      </c>
-      <c r="P7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>63</v>
-      </c>
-      <c r="R7" t="s">
-        <v>15</v>
-      </c>
-      <c r="S7" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
